--- a/results/20250402/evaluation_scene_noisy_0.3.xlsx
+++ b/results/20250402/evaluation_scene_noisy_0.3.xlsx
@@ -1473,10 +1473,10 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.44454</v>
+        <v>0.77404</v>
       </c>
       <c r="I26" t="n">
-        <v>0.03871</v>
+        <v>0.00754</v>
       </c>
     </row>
     <row r="27">
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.22959</v>
+        <v>0.1661</v>
       </c>
       <c r="I27" t="n">
-        <v>0.03727</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="28">
@@ -1553,10 +1553,10 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.41186</v>
+        <v>0.78443</v>
       </c>
       <c r="I28" t="n">
-        <v>0.03373</v>
+        <v>0.00783</v>
       </c>
     </row>
     <row r="29">
@@ -1594,10 +1594,10 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.23591</v>
+        <v>0.27578</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0331</v>
+        <v>0.02574</v>
       </c>
     </row>
     <row r="30">
@@ -1633,10 +1633,10 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.44531</v>
+        <v>0.77413</v>
       </c>
       <c r="I30" t="n">
-        <v>0.03759</v>
+        <v>0.00717</v>
       </c>
     </row>
     <row r="31">
@@ -1672,10 +1672,10 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.23076</v>
+        <v>0.16502</v>
       </c>
       <c r="I31" t="n">
-        <v>0.03742</v>
+        <v>0.01925</v>
       </c>
     </row>
     <row r="32">
@@ -1713,10 +1713,10 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.41164</v>
+        <v>0.78671</v>
       </c>
       <c r="I32" t="n">
-        <v>0.03446</v>
+        <v>0.008279999999999999</v>
       </c>
     </row>
     <row r="33">
@@ -1754,10 +1754,10 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.23724</v>
+        <v>0.28259</v>
       </c>
       <c r="I33" t="n">
-        <v>0.03409</v>
+        <v>0.02585</v>
       </c>
     </row>
     <row r="34">
@@ -1793,10 +1793,10 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.757</v>
+        <v>0.71472</v>
       </c>
       <c r="I34" t="n">
-        <v>0.03772</v>
+        <v>0.00733</v>
       </c>
     </row>
     <row r="35">
@@ -1832,10 +1832,10 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0.5918600000000001</v>
+        <v>0.02751</v>
       </c>
       <c r="I35" t="n">
-        <v>0.04435</v>
+        <v>0.01332</v>
       </c>
     </row>
     <row r="36">
@@ -1873,10 +1873,10 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.75541</v>
+        <v>0.71485</v>
       </c>
       <c r="I36" t="n">
-        <v>0.03758</v>
+        <v>0.00727</v>
       </c>
     </row>
     <row r="37">
@@ -1914,10 +1914,10 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.59078</v>
+        <v>0.03133</v>
       </c>
       <c r="I37" t="n">
-        <v>0.04481</v>
+        <v>0.01373</v>
       </c>
     </row>
     <row r="38">
@@ -1953,10 +1953,10 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.75718</v>
+        <v>0.71469</v>
       </c>
       <c r="I38" t="n">
-        <v>0.03764</v>
+        <v>0.00731</v>
       </c>
     </row>
     <row r="39">
@@ -1992,10 +1992,10 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.5920299999999999</v>
+        <v>0.02751</v>
       </c>
       <c r="I39" t="n">
-        <v>0.04441</v>
+        <v>0.01332</v>
       </c>
     </row>
     <row r="40">
@@ -2033,10 +2033,10 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.75542</v>
+        <v>0.71469</v>
       </c>
       <c r="I40" t="n">
-        <v>0.03737</v>
+        <v>0.00725</v>
       </c>
     </row>
     <row r="41">
@@ -2074,10 +2074,10 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.59037</v>
+        <v>0.03091</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0449</v>
+        <v>0.01349</v>
       </c>
     </row>
     <row r="42">
@@ -3073,10 +3073,10 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>0.48854</v>
+        <v>0.70928</v>
       </c>
       <c r="I66" t="n">
-        <v>0.01941</v>
+        <v>0.00814</v>
       </c>
     </row>
     <row r="67">
@@ -3112,10 +3112,10 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>0.23472</v>
+        <v>0.06107</v>
       </c>
       <c r="I67" t="n">
-        <v>0.02215</v>
+        <v>0.01261</v>
       </c>
     </row>
     <row r="68">
@@ -3153,10 +3153,10 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>0.43501</v>
+        <v>0.72934</v>
       </c>
       <c r="I68" t="n">
-        <v>0.02264</v>
+        <v>0.00774</v>
       </c>
     </row>
     <row r="69">
@@ -3194,10 +3194,10 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>0.21279</v>
+        <v>0.16186</v>
       </c>
       <c r="I69" t="n">
-        <v>0.02767</v>
+        <v>0.01616</v>
       </c>
     </row>
     <row r="70">
@@ -3233,10 +3233,10 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>0.48975</v>
+        <v>0.7099299999999999</v>
       </c>
       <c r="I70" t="n">
-        <v>0.01846</v>
+        <v>0.00804</v>
       </c>
     </row>
     <row r="71">
@@ -3272,10 +3272,10 @@
         </is>
       </c>
       <c r="H71" t="n">
-        <v>0.23581</v>
+        <v>0.06116</v>
       </c>
       <c r="I71" t="n">
-        <v>0.02242</v>
+        <v>0.01266</v>
       </c>
     </row>
     <row r="72">
@@ -3313,10 +3313,10 @@
         </is>
       </c>
       <c r="H72" t="n">
-        <v>0.43109</v>
+        <v>0.73424</v>
       </c>
       <c r="I72" t="n">
-        <v>0.02333</v>
+        <v>0.007990000000000001</v>
       </c>
     </row>
     <row r="73">
@@ -3354,10 +3354,10 @@
         </is>
       </c>
       <c r="H73" t="n">
-        <v>0.21329</v>
+        <v>0.1769</v>
       </c>
       <c r="I73" t="n">
-        <v>0.02846</v>
+        <v>0.0177</v>
       </c>
     </row>
     <row r="74">
@@ -3393,10 +3393,10 @@
         </is>
       </c>
       <c r="H74" t="n">
-        <v>0.67205</v>
+        <v>0.69664</v>
       </c>
       <c r="I74" t="n">
-        <v>0.01928</v>
+        <v>0.00733</v>
       </c>
     </row>
     <row r="75">
@@ -3432,10 +3432,10 @@
         </is>
       </c>
       <c r="H75" t="n">
-        <v>0.44777</v>
+        <v>0.01811</v>
       </c>
       <c r="I75" t="n">
-        <v>0.03063</v>
+        <v>0.00763</v>
       </c>
     </row>
     <row r="76">
@@ -3473,10 +3473,10 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>0.66049</v>
+        <v>0.69882</v>
       </c>
       <c r="I76" t="n">
-        <v>0.0216</v>
+        <v>0.00726</v>
       </c>
     </row>
     <row r="77">
@@ -3514,10 +3514,10 @@
         </is>
       </c>
       <c r="H77" t="n">
-        <v>0.4378</v>
+        <v>0.02883</v>
       </c>
       <c r="I77" t="n">
-        <v>0.03149</v>
+        <v>0.009690000000000001</v>
       </c>
     </row>
     <row r="78">
@@ -3553,10 +3553,10 @@
         </is>
       </c>
       <c r="H78" t="n">
-        <v>0.67222</v>
+        <v>0.69668</v>
       </c>
       <c r="I78" t="n">
-        <v>0.0194</v>
+        <v>0.00728</v>
       </c>
     </row>
     <row r="79">
@@ -3592,10 +3592,10 @@
         </is>
       </c>
       <c r="H79" t="n">
-        <v>0.44802</v>
+        <v>0.01811</v>
       </c>
       <c r="I79" t="n">
-        <v>0.03068</v>
+        <v>0.00763</v>
       </c>
     </row>
     <row r="80">
@@ -3633,10 +3633,10 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>0.66055</v>
+        <v>0.6986599999999999</v>
       </c>
       <c r="I80" t="n">
-        <v>0.02112</v>
+        <v>0.0072</v>
       </c>
     </row>
     <row r="81">
@@ -3674,10 +3674,10 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>0.43714</v>
+        <v>0.02842</v>
       </c>
       <c r="I81" t="n">
-        <v>0.03163</v>
+        <v>0.00959</v>
       </c>
     </row>
     <row r="82">
@@ -4673,10 +4673,10 @@
         </is>
       </c>
       <c r="H106" t="n">
-        <v>0.44747</v>
+        <v>0.77214</v>
       </c>
       <c r="I106" t="n">
-        <v>0.02896</v>
+        <v>0.009339999999999999</v>
       </c>
     </row>
     <row r="107">
@@ -4712,10 +4712,10 @@
         </is>
       </c>
       <c r="H107" t="n">
-        <v>0.23673</v>
+        <v>0.16336</v>
       </c>
       <c r="I107" t="n">
-        <v>0.03296</v>
+        <v>0.02549</v>
       </c>
     </row>
     <row r="108">
@@ -4753,10 +4753,10 @@
         </is>
       </c>
       <c r="H108" t="n">
-        <v>0.42173</v>
+        <v>0.78126</v>
       </c>
       <c r="I108" t="n">
-        <v>0.0329</v>
+        <v>0.00928</v>
       </c>
     </row>
     <row r="109">
@@ -4794,10 +4794,10 @@
         </is>
       </c>
       <c r="H109" t="n">
-        <v>0.24587</v>
+        <v>0.25784</v>
       </c>
       <c r="I109" t="n">
-        <v>0.03374</v>
+        <v>0.03425</v>
       </c>
     </row>
     <row r="110">
@@ -4833,10 +4833,10 @@
         </is>
       </c>
       <c r="H110" t="n">
-        <v>0.44733</v>
+        <v>0.7723</v>
       </c>
       <c r="I110" t="n">
-        <v>0.02866</v>
+        <v>0.009469999999999999</v>
       </c>
     </row>
     <row r="111">
@@ -4872,10 +4872,10 @@
         </is>
       </c>
       <c r="H111" t="n">
-        <v>0.23739</v>
+        <v>0.16262</v>
       </c>
       <c r="I111" t="n">
-        <v>0.03258</v>
+        <v>0.02547</v>
       </c>
     </row>
     <row r="112">
@@ -4913,10 +4913,10 @@
         </is>
       </c>
       <c r="H112" t="n">
-        <v>0.42181</v>
+        <v>0.78327</v>
       </c>
       <c r="I112" t="n">
-        <v>0.0338</v>
+        <v>0.00962</v>
       </c>
     </row>
     <row r="113">
@@ -4954,10 +4954,10 @@
         </is>
       </c>
       <c r="H113" t="n">
-        <v>0.2472</v>
+        <v>0.26416</v>
       </c>
       <c r="I113" t="n">
-        <v>0.03387</v>
+        <v>0.03447</v>
       </c>
     </row>
     <row r="114">
@@ -4993,10 +4993,10 @@
         </is>
       </c>
       <c r="H114" t="n">
-        <v>0.76213</v>
+        <v>0.71283</v>
       </c>
       <c r="I114" t="n">
-        <v>0.02889</v>
+        <v>0.00751</v>
       </c>
     </row>
     <row r="115">
@@ -5032,10 +5032,10 @@
         </is>
       </c>
       <c r="H115" t="n">
-        <v>0.60856</v>
+        <v>0.02459</v>
       </c>
       <c r="I115" t="n">
-        <v>0.03951</v>
+        <v>0.01128</v>
       </c>
     </row>
     <row r="116">
@@ -5073,10 +5073,10 @@
         </is>
       </c>
       <c r="H116" t="n">
-        <v>0.76092</v>
+        <v>0.71306</v>
       </c>
       <c r="I116" t="n">
-        <v>0.02846</v>
+        <v>0.00761</v>
       </c>
     </row>
     <row r="117">
@@ -5114,10 +5114,10 @@
         </is>
       </c>
       <c r="H117" t="n">
-        <v>0.60847</v>
+        <v>0.02684</v>
       </c>
       <c r="I117" t="n">
-        <v>0.03852</v>
+        <v>0.01145</v>
       </c>
     </row>
     <row r="118">
@@ -5153,10 +5153,10 @@
         </is>
       </c>
       <c r="H118" t="n">
-        <v>0.7620400000000001</v>
+        <v>0.71284</v>
       </c>
       <c r="I118" t="n">
-        <v>0.02909</v>
+        <v>0.00745</v>
       </c>
     </row>
     <row r="119">
@@ -5192,10 +5192,10 @@
         </is>
       </c>
       <c r="H119" t="n">
-        <v>0.60856</v>
+        <v>0.02459</v>
       </c>
       <c r="I119" t="n">
-        <v>0.03969</v>
+        <v>0.01128</v>
       </c>
     </row>
     <row r="120">
@@ -5233,10 +5233,10 @@
         </is>
       </c>
       <c r="H120" t="n">
-        <v>0.76072</v>
+        <v>0.7129799999999999</v>
       </c>
       <c r="I120" t="n">
-        <v>0.02867</v>
+        <v>0.00757</v>
       </c>
     </row>
     <row r="121">
@@ -5274,10 +5274,10 @@
         </is>
       </c>
       <c r="H121" t="n">
-        <v>0.60822</v>
+        <v>0.02667</v>
       </c>
       <c r="I121" t="n">
-        <v>0.03873</v>
+        <v>0.01139</v>
       </c>
     </row>
     <row r="122">
@@ -6273,10 +6273,10 @@
         </is>
       </c>
       <c r="H146" t="n">
-        <v>0.47495</v>
+        <v>0.70969</v>
       </c>
       <c r="I146" t="n">
-        <v>0.02682</v>
+        <v>0.00912</v>
       </c>
     </row>
     <row r="147">
@@ -6312,10 +6312,10 @@
         </is>
       </c>
       <c r="H147" t="n">
-        <v>0.2197</v>
+        <v>0.06647</v>
       </c>
       <c r="I147" t="n">
-        <v>0.02094</v>
+        <v>0.01102</v>
       </c>
     </row>
     <row r="148">
@@ -6353,10 +6353,10 @@
         </is>
       </c>
       <c r="H148" t="n">
-        <v>0.41876</v>
+        <v>0.72396</v>
       </c>
       <c r="I148" t="n">
-        <v>0.02573</v>
+        <v>0.0086</v>
       </c>
     </row>
     <row r="149">
@@ -6394,10 +6394,10 @@
         </is>
       </c>
       <c r="H149" t="n">
-        <v>0.19876</v>
+        <v>0.16028</v>
       </c>
       <c r="I149" t="n">
-        <v>0.01872</v>
+        <v>0.01982</v>
       </c>
     </row>
     <row r="150">
@@ -6433,10 +6433,10 @@
         </is>
       </c>
       <c r="H150" t="n">
-        <v>0.47658</v>
+        <v>0.70958</v>
       </c>
       <c r="I150" t="n">
-        <v>0.02684</v>
+        <v>0.00925</v>
       </c>
     </row>
     <row r="151">
@@ -6472,10 +6472,10 @@
         </is>
       </c>
       <c r="H151" t="n">
-        <v>0.22228</v>
+        <v>0.06647</v>
       </c>
       <c r="I151" t="n">
-        <v>0.02213</v>
+        <v>0.01102</v>
       </c>
     </row>
     <row r="152">
@@ -6513,10 +6513,10 @@
         </is>
       </c>
       <c r="H152" t="n">
-        <v>0.41501</v>
+        <v>0.73064</v>
       </c>
       <c r="I152" t="n">
-        <v>0.02638</v>
+        <v>0.00929</v>
       </c>
     </row>
     <row r="153">
@@ -6554,10 +6554,10 @@
         </is>
       </c>
       <c r="H153" t="n">
-        <v>0.20217</v>
+        <v>0.18164</v>
       </c>
       <c r="I153" t="n">
-        <v>0.01952</v>
+        <v>0.02435</v>
       </c>
     </row>
     <row r="154">
@@ -6593,10 +6593,10 @@
         </is>
       </c>
       <c r="H154" t="n">
-        <v>0.63888</v>
+        <v>0.69723</v>
       </c>
       <c r="I154" t="n">
-        <v>0.02901</v>
+        <v>0.008070000000000001</v>
       </c>
     </row>
     <row r="155">
@@ -6632,10 +6632,10 @@
         </is>
       </c>
       <c r="H155" t="n">
-        <v>0.41215</v>
+        <v>0.02086</v>
       </c>
       <c r="I155" t="n">
-        <v>0.03412</v>
+        <v>0.00716</v>
       </c>
     </row>
     <row r="156">
@@ -6673,10 +6673,10 @@
         </is>
       </c>
       <c r="H156" t="n">
-        <v>0.63027</v>
+        <v>0.6986599999999999</v>
       </c>
       <c r="I156" t="n">
-        <v>0.0293</v>
+        <v>0.008109999999999999</v>
       </c>
     </row>
     <row r="157">
@@ -6714,10 +6714,10 @@
         </is>
       </c>
       <c r="H157" t="n">
-        <v>0.40724</v>
+        <v>0.03191</v>
       </c>
       <c r="I157" t="n">
-        <v>0.03208</v>
+        <v>0.00797</v>
       </c>
     </row>
     <row r="158">
@@ -6753,10 +6753,10 @@
         </is>
       </c>
       <c r="H158" t="n">
-        <v>0.63925</v>
+        <v>0.69722</v>
       </c>
       <c r="I158" t="n">
-        <v>0.02861</v>
+        <v>0.008019999999999999</v>
       </c>
     </row>
     <row r="159">
@@ -6792,10 +6792,10 @@
         </is>
       </c>
       <c r="H159" t="n">
-        <v>0.41256</v>
+        <v>0.02086</v>
       </c>
       <c r="I159" t="n">
-        <v>0.03378</v>
+        <v>0.00716</v>
       </c>
     </row>
     <row r="160">
@@ -6833,10 +6833,10 @@
         </is>
       </c>
       <c r="H160" t="n">
-        <v>0.63097</v>
+        <v>0.69856</v>
       </c>
       <c r="I160" t="n">
-        <v>0.02945</v>
+        <v>0.00793</v>
       </c>
     </row>
     <row r="161">
@@ -6874,10 +6874,10 @@
         </is>
       </c>
       <c r="H161" t="n">
-        <v>0.40791</v>
+        <v>0.03157</v>
       </c>
       <c r="I161" t="n">
-        <v>0.03235</v>
+        <v>0.00766</v>
       </c>
     </row>
   </sheetData>
